--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/64_Osmaniye_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/64_Osmaniye_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4581E0A5-59FF-4595-98B4-48A6286EB90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C62D72-5943-43CC-B124-1ED7A35EBB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{41EB8DA4-3102-4A33-A249-9D575A8F9049}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{BC10E620-CD61-4B54-82CA-55B4318DFB7B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -935,14 +935,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D3D613DC-95DF-4C8C-AFDB-69E1D4EC5494}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{44082B46-5A61-422C-BDE8-62BEFB00B875}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{7A9B0E54-95BB-4437-ABFB-2B7A626A80A8}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{48C3B1B4-2B6A-4449-9B7A-54A863D55047}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2DD01EEF-96B2-4807-B277-BFEA39EE2105}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4C52503E-7F00-423D-A504-D13DCDD8F1D2}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{EFFC275C-0718-4A78-A5B0-D0A6D510EB59}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{12F0DC0A-3EC4-496F-8AB1-84A0145EC1D8}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BCD0089B-6CF0-4265-BE0B-8041B4A8C3F6}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3F306208-FE88-4E1A-B6AC-09F5046F3DB2}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{41C0D0B5-D640-4BFF-A2C2-F6407058B953}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{A06CC9B0-A24B-4013-A65D-079B946187DC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{9BA5F5DA-1C35-4C98-8BFD-E35301ACA56D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{25312B28-6CE9-4C56-898A-22129DEB4D8C}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{4DF09869-F25E-443E-BF4C-C33E3D58FBD5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{EA83F616-47C5-42F9-8544-07D507354E7F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BB728C-B1D4-460E-A08E-232D51F4B928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A085659-75BB-4FB5-B18A-07921EBD9E74}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2603,18 +2603,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B91CA75-D617-4785-8E77-2032F624926F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8D65C56-0750-4CE8-8BF6-FAED2C211D1B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D04C0014-4D77-4EA7-BE1A-DC04FF862080}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6334B8C6-9FFC-4A06-AA48-DB802D353A50}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F077866F-6794-4E3D-8018-44E18E86A497}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3BCA66C-31AC-4AA6-AE65-109FE0B57228}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18463B30-DDF2-4AAF-AD27-E8708CA8F052}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18B2A9A9-F086-4D4D-8FF1-8D0CE0208336}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F241CDB5-E293-46FD-AC67-F91E52699245}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{225B8A7F-9A0F-44C3-A873-1B78198A0B22}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8D6991E-AD63-4487-8572-100C7E284789}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35C40D2E-30BF-4C79-B4FB-6643D89FF06C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92921702-1D5D-4077-96A9-54FFEE03777A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2125987B-2A53-4CB5-BCC5-06BCD903F8E0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DFF3DDC5-5E68-40A8-AA58-E2A55AED1569}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D676D6D9-16A0-4D7D-86D0-4C8904999A7B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{005ED890-B98E-4274-A39A-682AEFC49789}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E5743C7-6396-4938-9DDB-6206F8A2A423}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D0CF62F4-CF8C-49D3-A17F-613AD47C0B43}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{215F30A3-0234-461F-86EE-84FCF731CBBF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DAD8F297-0C5B-4326-8B88-37DFD8C2FF97}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{755556AB-F03B-44B9-94E4-19DD76296B66}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{084DB79D-D94F-4514-A794-9FF4D7D24D7A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60C02BB0-5BDF-4130-85D7-F967195E3FB5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2627,7 +2627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EA589C-DA4B-435F-8C38-8EACE354D1F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037A85B-2A96-4540-B1EF-0DD6ACF4DAD1}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3894,18 +3894,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{716CC228-FCAE-4FFD-930B-27220030CA8D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C7DC3C1-7861-4C1A-B9B7-EEEDF61AD174}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{867A5EE4-EF17-4DDB-9EF1-ABDEFE97D6DC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D859EEB6-8D9C-4256-AE72-5C9E2F840CCA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9696BF76-DF78-48A0-9D8B-A6F818B1C7F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61D55F5D-9E54-4A61-A47D-064DFFF5D4CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D622310-4D91-4A33-A47C-A22318B01371}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55CCB82F-502A-42E6-93F0-84EF6AAAF43D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE2A7100-9DD1-417C-96B7-AF9486BEC284}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0EC74154-3CDD-4C1F-BC37-73166F8825B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81232A04-5500-4CE6-9E48-FDA01EB73087}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC595FD0-A100-4075-9564-DE112F4988C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C17E8E24-4415-4E71-BF4D-762881215F92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45AFF4B3-1FF7-4050-9B24-EF229E815704}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{09E441E2-B96E-46E0-8B42-33F55BA9C1CA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7353322C-22C9-4331-ABD7-57BC499074F8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA32D1CC-7E07-45DB-958A-924162CF4A12}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04522044-C044-4E4F-935A-0F68C91F9641}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01FF8B7C-F881-4E06-8EDA-71E3227838E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6DD6C8CA-14FC-40E5-B5F8-4C534879B009}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EBE64C3C-71C3-4B12-831D-4DD6191B33C8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3422D903-D5B9-4169-A94E-DD72F337919B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91F17A7C-552D-4520-B44E-7BEFCB343DA7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB338B0D-1FAB-4515-9632-3103968D639B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3918,7 +3918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50657A9E-49FE-4941-8939-3649F0A2E299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F941B3-089F-4E5D-8CBE-D115453D4472}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5185,18 +5185,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8B9301F-0145-4988-B437-665F7B5664F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE2A57C8-7AC6-4CD1-8495-AD05DDDA5F57}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CDBC644A-E362-4139-8CFD-EE3B9738CC20}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{444CD0FC-B88B-4189-8541-5E95D0904CEA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3481F989-4251-4F46-AF7E-27BF3AE3CD2C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{74B903BF-BC23-479D-8FC6-3944FACA6BE2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{945FD2A1-8286-4C73-99BE-B813B2EAD0C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7521F5F7-C0F0-4DEB-8E15-A6D1C5E0F59A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B4BBE84-07BD-44DC-85BB-1B0349019A9C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{569AF62F-F7C6-4FE8-AB0D-A566D47CA2C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9309978-3B97-4E13-B563-59368EBEAED1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{539CE9A1-96B0-4F0D-AC66-75EEB307516A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9ADED416-3983-4690-8A88-0C5BD329A7A4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC9D7F8D-8A1E-4361-AAE0-8356CE849E8B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9EE2C49-7B33-4597-820D-BD5F47B9A096}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{12DC50C0-C599-48AC-B968-A805AEBD8A70}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EEDB2420-BE2A-4446-B526-280722290D7E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{24DC93A4-32F3-43BF-A885-2E801AF1565D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B1A8ACB-3F85-4ED0-9DD3-7762539787E8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D542479-7DC8-41BF-A87C-E841D1924FD7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8AB7B251-CBF3-43B4-A9C3-9F653485FB0C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3C0FA959-79B7-4184-9440-C5A1B8EEA0FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9BC1ADF4-29D8-4E6D-BF2C-6F45AC905AB3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5DEBBAF-7A4D-4B83-B4F2-4111700CEFAA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5209,7 +5209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F4B5AD-7BC5-45F5-A34C-BA51F54E183B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65645AFA-56B6-4566-8159-1EF2210E3D5A}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6472,18 +6472,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9D8371E-515F-4676-B5C3-5B946BBEC262}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D0EA995-C14A-4F54-9AAF-5BDB9B098BA3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B76DCF2-BCB7-4717-B435-0D5FD2418204}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E172FB19-C4B1-4EAD-8CA6-DF0992C35F82}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3223652-B6C3-4DFA-9177-624A76915014}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B640472-FE06-4354-9657-3ADE6566FEDB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3983D4BA-91D8-448C-9FDE-17E93BE2B71C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3755D627-E0DA-4206-850A-7757FD6D3134}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B22848FC-FF77-4B8A-838D-4B37B21AC839}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24F3B333-A5FA-441A-B275-EED5E7ACD605}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81685217-0613-4D10-9203-2D68BB9BCBD9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{979E8AE7-187E-496A-972B-E11E8AA23FB3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00BD0C83-7D71-4584-A22F-5321A76601E1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D62C2426-BD3A-42A4-BE9C-F1E484FC2D51}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{958E7C5A-9541-4135-B7CF-825CAE9DF1DC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F83356A4-AB53-4CCF-9460-3EEB55275673}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{765C3E75-FB94-4D3F-BA0E-D81805DBE816}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E69BACEE-3124-4403-A069-4586941218FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E76335D-4DEE-42F2-985B-C61BF9103C8E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07492BA2-57A2-48EF-BE09-34AA95A1C9E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2013E35E-7E6C-47F1-89C0-82419B90883E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A5D23BAA-927B-48C1-9C72-C0957645A4E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ADA85BAB-15E7-48ED-859E-401854CCAC8D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8B83A7B-E81D-4270-B50E-3EF4B4D6ABF0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6496,7 +6496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E159A7B0-F2DF-4D9F-8753-52ABE7886D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DD0FF5-4108-4E78-A47D-405BA9DD598E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7783,18 +7783,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB323EC8-870F-4D23-B1C2-C0A08EF82AC2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D709C1D3-C30C-4D96-977C-6AA6E2F879AF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0AEFFFD7-3C9F-4809-8DDD-0A32E5F4344F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B8607010-0101-4B7B-B306-49706EDE6EA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F22A589-124D-4014-8018-43344A61D341}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08F555A9-C9FE-4AB1-9930-D564A290BBF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30AAB693-848C-4DA0-9076-5F648A0F4716}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2F75FFF-40F1-43F7-B985-B1585DE0C259}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C6E7136-3D35-4EA1-8829-79C908038D26}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF968156-39C4-4374-A5BF-C8DD065362ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{764B8094-5A9B-48F6-96BD-ADB444744EA0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D9BD764-1F9B-4590-A11A-A869DB13B987}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A5F06FA-E899-4DF5-90D1-3523AF115220}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04C25F46-D9BD-488A-AA3A-D1FD3264E483}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0659263E-744F-4DD8-B332-6C0E7131DFAA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D2C81F0-4B90-4D46-9590-33AEBF827C45}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE3552C8-659D-4B36-9558-304C0F3AA975}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD10F36D-1CEE-4A5C-A59F-93ECD48EBCD8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B5D40ED-8F37-407A-85FA-B8927A585644}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F56A192-B18D-4944-9726-2AB118D83595}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09DD795E-805E-4472-9ED9-1E3F84A1B1AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{26A1F332-67C4-4575-B84A-53D1CC16B235}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B41F51D-E95F-4C03-890F-16119B03469D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6934EC13-5B52-45AD-846F-4CCB08DB562E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7807,7 +7807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BC95D8-81A3-4515-A62B-4A7461D0CC00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A36AB8-E315-4427-9249-823071C1E256}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9090,18 +9090,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C405E08-24FF-4286-830F-6B6097E0CBE7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{967794E8-1E39-48B8-80CE-1FF5FED9A658}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A79107F5-02FB-4B01-9456-F6C6F219759C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{08540F5B-A649-46AF-B699-1200CDA7FB23}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{296D5910-D29B-4971-AF95-4271B67E3526}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D1CA5222-5CB9-4F4B-BA62-114DD33FC9AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2BFD6180-ABC3-4B60-9181-76282E21FD30}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4030BDA-369E-42CC-A863-7E6A061738D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D725F569-7803-41E6-9E66-09C45CF07DCF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2CA7033E-F823-4BDF-AF40-9DC800A10599}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22FDD973-60AC-47AB-94B2-25B89ADAAE17}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3498C726-C7F7-4AFF-A915-AA69ED51B736}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7853D6B6-262C-4D74-9449-E0F0B839324E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{074A30EA-E6F5-46FE-953C-A04D582EE27F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CBCA8BD4-3DD4-4CAB-A811-2964EE85FFAF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6008C2A7-A3F7-4842-B4AB-E38D23E35C84}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{198BA26C-4FA2-4027-9868-410FC2D89420}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88463E25-9CF8-42EE-B1FB-1FA2B628F6F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82B778E7-4BFC-4611-8DB7-DCEC3B31F8E1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04294AC6-47C0-4A4C-93B9-F3D7EA43E21C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90A4A754-74F3-4E24-9EE9-70CBC56F1AD2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0BC19F55-6770-459E-A7B5-64B04F6D7B92}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EB6DD2C-7873-4CF7-B22A-A351435AAE68}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BA47C7E3-8BB7-47B9-8B2A-B0255FA2D491}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9114,7 +9114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718CEA7A-86BC-463B-8D32-E41DE8B6F8F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADE602B-0D0B-4A78-83C7-1DF16897A486}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10397,18 +10397,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0DA4F15-76AF-4A5D-86E9-106B090937AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A2150BC-3B6F-408A-8FDA-511AB3E36703}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B6ECB49A-FD40-4BE7-91E3-7CC76D587A1C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{28F76DCF-88E6-4159-86A5-1F7987D18D3E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62CF53D5-7790-43D5-B385-292EEF048718}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{86DFBF31-34B4-4B8F-8F95-BCDCD8B6597C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97FD73F2-8097-4F0A-AD2F-1C90113372A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6318AC8C-46CD-410F-9F0D-43C03ECE0B33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9D3035F-CFB6-48B0-B581-999DA007FC62}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FEDE9888-AE8C-46B6-9A3B-E76E308F6220}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F125753-6153-4667-B0F7-2D5DF517BE67}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C11BE901-94F7-49A3-BC36-14442749F377}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2332E0BD-77B3-4134-8B3F-8FACD7A3F036}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B9ABA77-0066-464D-8439-00C36B9A5E25}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{86AA42E3-997C-4736-947F-38217FD0A478}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{25E020F2-7FBF-4D1A-9CE5-0D5FC6BFF421}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F00F6DE1-4534-45B5-B0BD-1A610A8CA2FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{760B5D3E-5FCD-47E9-9A9E-956CE872E6F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A38A87A-1677-4F5D-B9BF-4113FC87C496}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87A9DC9C-94B8-46DE-8033-BE83685F1245}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7D4E518-37C3-4808-B3B2-098608D7BF81}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BBB08B6A-0099-4057-BFF7-CBCC697BA001}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC3E4031-ED9F-4DA6-9986-288C0A6A683B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{776AFB2D-B7BA-4264-983F-C1675B5791F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10421,7 +10421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BBBDA9-C862-483D-8611-CA1815BA4C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D3B10A-A528-4348-BD15-BA907AA413A6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11704,18 +11704,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC4ADD98-E88B-4975-BD5F-4966EEC6FCDD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{532AFCD6-8ED4-4F22-9389-BF7638352887}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{145A5E24-005C-45F7-A9A6-193F79E7CEFC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{048526E5-1FEC-489B-B69C-9C4409188879}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31AF23C7-A555-40A8-9369-3A999DF87C49}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F12B929-5EF4-4EFB-B4C9-0D0111F12A97}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF732BAB-F178-44CF-AFF8-F4B383CB540E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8892F70-BACE-44AF-A355-D8F5494BD469}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B18DEA5-09C8-4579-99AA-3E624C3E9A3F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BD774A29-5C5F-4611-87A8-BB6C7AA5810F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD7FD4C8-4329-4A34-B9E9-9D62C610D823}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D64C01BD-B719-411C-9FAA-9057B8F1C289}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74B050D8-CF44-463E-8AE7-83F3AC47832F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15046F86-D0F1-4379-A2EC-D543ACFE7CAC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7741B6E2-E1A7-46C3-84ED-C731E366C54F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E027E9FF-AD22-4F4D-B1E1-8B728878EBF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{190763FA-3CAF-44CF-9072-7DA842403FE1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58ADBFDC-8A98-41F5-905D-650DE3ADB7C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B350E62-1CB8-45DC-A1CF-4BAE4812EA2F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBEC43EB-20A5-46C2-B494-A8E7ADE746D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F9108CC-98C3-400B-B5CD-2CAB581EBA1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62175D43-F1CC-4332-B02F-880044B6791B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BACB6D1-31E4-4994-9353-AAF776372DDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{689AB08B-DC51-4808-A4CD-F4AD4A3F2D2C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11728,7 +11728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24906FF-3F52-4897-987A-F65C6B9BA915}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B820F-BC81-4DC2-83D8-AE75FB043B45}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13003,18 +13003,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{148AACD3-28C0-4B9C-8868-8DC738FEFEC2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14EF8C4B-51FC-4D0C-9FA1-051F86258B81}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3ADBAB8A-865D-4F2B-B6A5-F1BD64CAD87A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EFF23C21-185C-4A5B-BB15-F36ACC874322}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{416A9179-D5B4-4502-9C43-1C5EAF41E1FC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB48E0DE-6230-4B1D-9F01-991D1CD8CF37}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09B38C82-1827-460F-818A-76553977766A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49DB297E-20E3-40A6-98B0-D25787856D1A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{478E4AC9-3C7B-4392-94BA-D4E866F7F31A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D721FEC-DF5B-470A-AAD1-171B5B386846}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0DC9745-2F7F-4CE2-8E13-7657EE9591AA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2AB523A-DAD0-4AF8-9F53-C74D5BAB9C3B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA2E5C56-6753-414B-B34F-641721868925}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{683B4C14-B45F-45C8-A6D3-3F28D979AFAF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35992F99-D40C-4024-A41B-8F92BED86B4B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6F987ADA-1E90-4122-85A6-335CEED72101}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D028299D-8CAE-48AB-BF7D-C2B1B90D34B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F4174E97-EEFD-45A8-A156-56B3810E6083}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E7D8389-E44C-42C6-82EB-8D6F04995104}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2682925D-A843-438C-8638-4F09197E1A54}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00B20487-AF2F-489A-8092-6EEAFEF7E84F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB1712F4-ED09-43EF-A0C1-64B97D9CD2A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30016D01-D4DE-402F-B4F8-9F8A83C1737E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0514B566-08F4-411B-9B74-0BAC0063293D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13027,7 +13027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CDB5CE-E4E8-4B53-86D1-58052A240F5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E906ABA-D0A6-453B-BFFD-E4DF64676EF6}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14302,18 +14302,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52EFE1A7-6B67-41ED-BFDF-E826EBCE78B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFDAA796-D24B-473E-B79F-843DBF3FCF6F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{366EC40C-CA04-4E2F-AA83-286E48EBB55B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BB3066F3-F5F7-41C7-ADA5-BB971CFC7596}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{44258A66-B7D3-4A49-9972-C98DB6ED51FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20035936-2B5F-4D9A-8144-C67298A319BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5B3D3F1-EEF1-4646-BB08-80B520585FDE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4ABE4E12-F620-47FB-A17D-D6A777D74B6E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32B2C9BE-9A4E-424D-8FE9-6D22457BEAF6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F401D867-1F8D-4EC2-975C-D3772BA86CF6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1611C42-A4EE-4EB0-A61B-CEB84C10E218}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E089C898-ED61-4109-84DF-52066D85861E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE956307-162D-43C7-B1CB-6EF4A69AF26B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D632EFB8-E76A-4C7C-B87A-F724DB774A92}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E96C9969-10F9-40C6-902E-1526C91152D0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2002F9E2-89BC-4BA8-85C4-22AB819B1ADF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D394F816-B57A-46CE-B3EC-00A4BE71B7DA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2FEFDDB3-4118-437F-AEA1-F6E138CFD039}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C15BF0F-DDA5-4562-9E14-C16EB5E121E1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{787A7783-0373-4767-A952-AA9107AD7BCF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1621883-8B73-48CA-91CB-99128A0E1E23}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E6394C1-24B6-4F78-B7DC-F678E2ACCF60}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{49A5FE37-B803-46C5-BCEF-72A4C9213DAA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E05E6504-9DE6-4B30-8521-8DC49C6AE846}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14326,7 +14326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA7FF8E-5C6D-455F-8CC2-EDB39A324B6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA8E0EB-E6D6-4C53-AE77-B7B073C61AD9}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15601,18 +15601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85B06BC6-1709-473D-9B81-173AED3F4682}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5039C60F-3693-4D97-8671-03A228154D36}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{107F4D76-A9A7-4BD5-AB2A-4F37FA7ECABE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{389D8DFE-3D7D-4BA7-9F2F-849E7057D99A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E1F8CE0-0D6E-4C16-9C32-4B331B631A10}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{404173D0-B683-4F2A-8C46-B29C3F062932}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62030994-6764-487C-9D55-6A9D174C049C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{258DB8EC-CE30-4AFD-97E8-EEC643C4BEF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C7A352E-03C2-4A5E-9A41-E60D57AD99B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BB5A329F-0B6A-4C20-8779-453CE0F908B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5E77B45-1ADD-4AF7-921E-FBAB4224EF78}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F557FF94-C530-4D90-81CA-288BDC57D2FD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57DBBFAC-A85C-486C-A261-C2A91F50981E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA5F5F47-5496-4455-A2DB-F99633B830EA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1BD46502-6F32-414F-B008-36667C855CD5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D01C88E6-140F-444A-9981-FDAC2B79688D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{396C88F5-643C-4F77-8BAA-A7953AFD4863}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BFD3BFAB-480B-4E96-8594-A0766C607AD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D840AA79-BA17-466F-BE19-E2858B8733D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4896ADDA-B1C6-481E-8860-3EA66FCB1DD4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED9BC0CD-3523-4422-A8B2-2B0C0B63F875}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E3A12A2-2F0F-4489-A9A3-D724D27F68C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05A9796B-569C-4882-9A52-FEEDA3C51142}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38EE8388-CFF3-4F89-9C60-EF4D64D883D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15625,7 +15625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0DA267-D07B-4C3C-9C51-940EC55071FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1F51A6-4183-4135-9479-74DC2DA16F6C}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16892,18 +16892,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0D8C839-ECAD-46AC-9DEE-0A98AE46095F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39D6619B-2C8E-481A-8B19-5AAAE6FB9FCD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E323511C-D309-47F4-BF3C-3F093636492C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F1A99FF4-A179-42A4-A873-5D03F2CEAF1F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED4646AF-48DC-4F8E-A6BF-DF53A663335C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE72280C-F701-4155-8230-E5FEC42EA119}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAAFF2AF-50A9-451C-8014-393E034FC554}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3C86178-7B47-428F-96A1-E7B170CE7981}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C88D2C51-5F0E-4040-A8D2-30421490A151}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5DC155CE-A0B5-4647-AD6A-9A42C57CBFB3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1E071A2-6B05-42EA-8384-D54F7C61AD2B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0944950-3E56-4BE9-8EE1-CB3DC2E4C0A2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2E3C664-8F8E-4C98-B272-82C3C13209ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{851F2D25-4E0A-4BE0-B4A8-AD1D36670BD4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{59A7E760-B1C2-40D4-A321-08037BA27E8F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5D01F446-D957-42EA-A03F-FDC8D24A5DA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB326234-B505-4976-A525-0D3F2FF941E9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{209E6644-6C35-4D82-A4B7-71D48BE7EB90}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8FAF224B-E65F-49D7-B3B7-2EDCDE033224}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5ACBE18-8141-499D-BA64-7F7C3B5FA7C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2388FD14-BAE0-4747-B134-94F58C7CBFFE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF4AF86C-09F1-4237-B5F4-0E5B168975A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DDE0BD96-8AE3-4E4F-AB56-371DF973F6A5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F96B048D-4739-4563-8341-4DB9850F5188}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
